--- a/config_aomi_1.4/game_module_config.xlsx
+++ b/config_aomi_1.4/game_module_config.xlsx
@@ -4099,11 +4099,11 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>aact_ty_sjb_style/act_035_dlphb</t>
+    <t>sys_act_base_style/sys_act_base_weekly_047</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_047</t>
+    <t>act_ty_sjb_style/act_035_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4796,7 +4796,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E330" sqref="E330"/>
+      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12864,7 +12864,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12956,7 +12956,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
